--- a/Evaluation/Overview.xlsx
+++ b/Evaluation/Overview.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2037"/>
+  <dimension ref="A1:J2048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81858,6 +81925,446 @@
         <v>0.003393345272881487</v>
       </c>
     </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>eval004</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr"/>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2038" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier</t>
+        </is>
+      </c>
+      <c r="G2038" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'learning_rate': 1.0, 'max_depth': 1, 'random_state': 0}</t>
+        </is>
+      </c>
+      <c r="H2038" t="n">
+        <v>0.9801980198019802</v>
+      </c>
+      <c r="I2038" t="n">
+        <v>0.4271844660194175</v>
+      </c>
+      <c r="J2038" t="n">
+        <v>-0.3737864077669903</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr"/>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2039" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier</t>
+        </is>
+      </c>
+      <c r="G2039" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'learning_rate': 1.0, 'max_depth': 1, 'random_state': 0}</t>
+        </is>
+      </c>
+      <c r="H2039" t="n">
+        <v>0.9801980198019802</v>
+      </c>
+      <c r="I2039" t="n">
+        <v>0.5097087378640777</v>
+      </c>
+      <c r="J2039" t="n">
+        <v>-0.2912621359223302</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr"/>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2040" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier</t>
+        </is>
+      </c>
+      <c r="G2040" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'learning_rate': 1.0, 'max_depth': 1, 'random_state': 0}</t>
+        </is>
+      </c>
+      <c r="H2040" t="n">
+        <v>0.9801980198019802</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>0.4902912621359223</v>
+      </c>
+      <c r="J2040" t="n">
+        <v>-0.3106796116504856</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr"/>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2041" t="inlineStr">
+        <is>
+          <t>GradientBoostingClassifier</t>
+        </is>
+      </c>
+      <c r="G2041" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'learning_rate': 1.0, 'max_depth': 1, 'random_state': 0}</t>
+        </is>
+      </c>
+      <c r="H2041" t="n">
+        <v>0.9801980198019802</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>0.5145631067961165</v>
+      </c>
+      <c r="J2041" t="n">
+        <v>-0.2864077669902914</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr"/>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2042" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="G2042" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H2042" t="n">
+        <v>0.9393196745417116</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>0.5032519558865114</v>
+      </c>
+      <c r="J2042" t="n">
+        <v>-0.2977189178998965</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr"/>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2043" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="G2043" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H2043" t="n">
+        <v>0.9393196745417116</v>
+      </c>
+      <c r="I2043" t="n">
+        <v>0.5052314072956924</v>
+      </c>
+      <c r="J2043" t="n">
+        <v>-0.2957394664907155</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr"/>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2044" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="G2044" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H2044" t="n">
+        <v>0.9393196745417116</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>0.5016495428409841</v>
+      </c>
+      <c r="J2044" t="n">
+        <v>-0.2993213309454238</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr"/>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2045" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="G2045" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H2045" t="n">
+        <v>0.9393196745417116</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>0.4973136016589688</v>
+      </c>
+      <c r="J2045" t="n">
+        <v>-0.3036572721274391</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr"/>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2046" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="G2046" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H2046" t="n">
+        <v>0.9393196745417116</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>0.4958997077952682</v>
+      </c>
+      <c r="J2046" t="n">
+        <v>-0.3050711659911397</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr"/>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2047" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="G2047" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H2047" t="n">
+        <v>0.9393196745417116</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>0.4943915543406542</v>
+      </c>
+      <c r="J2047" t="n">
+        <v>-0.3065793194457537</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>eval005</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr"/>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>adamic_adar, degree_product, jaccard, katz, kl, kl_rel, ks, pathent, pra, predpath, simrank</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>pra</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>0.8009708737864079</v>
+      </c>
+      <c r="F2048" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="G2048" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H2048" t="n">
+        <v>0.9393196745417116</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>0.502874917522858</v>
+      </c>
+      <c r="J2048" t="n">
+        <v>-0.2980959562635499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
